--- a/data/instructor.xlsx
+++ b/data/instructor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\code\xk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333BB7AC-0D54-46C0-87FE-B94C55B864E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB29119B-76E3-4DA5-9684-A75DE6581FA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6048" xr2:uid="{E0491CBF-9805-4279-82EB-701B67EC29F1}"/>
   </bookViews>
@@ -486,10 +486,6 @@
     <t>临床医学院</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,6 +495,10 @@
   </si>
   <si>
     <t>instructor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,27 +866,28 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
